--- a/datastatic/datasets/online/Economy_General_Gov_Gross_Debt_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/Economy_General_Gov_Gross_Debt_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Economy_General_Gov_Gross_Debt_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Economy_General_Gov_Gross_Debt_" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/Economy_General_Gov_Gross_Debt_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/Economy_General_Gov_Gross_Debt_EUROSTAT_2014.xlsx
@@ -55,7 +55,7 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t>When a state's income (through taxes) is insufficient to cover its expenditure (e.g. for social benefits), the state has to indebt itself. In the long run, this is not a sustainable practice, since more and more debt can accumulate over time, so that debts should be reduced. Nevertheless, the goal of reducing debt is often criticised because a heavy focus on reducing debt often leads to sacrificing important investments. 
+    <t xml:space="preserve">When a state's income (through taxes) is insufficient to cover its expenditure (e.g. for social benefits), the state has to indebt itself. In the long run, this is not a sustainable practice, since more and more debt can accumulate over time, so that debts should be reduced. Nevertheless, the goal of reducing debt is often criticised because a heavy focus on reducing debt often leads to sacrificing important investments. 
 The indicator is defined (in the Maastricht Treaty) as consolidated general government gross debt at nominal (face) value, outstanding at the end of the year in the following categories of government liabilities (as defined in ESA2010): currency and deposits, debt securities and loans. The general government sector comprises the subsectors: central government, state government, local government and social security funds. (Source: Eurostat)
 </t>
   </si>
